--- a/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/STATISTIC.xlsx
+++ b/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/STATISTIC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Project Submission\IS201.M21_20520418_20521252_20521720_20521890\Database Script and Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\VACCINATION\VACCINATION_MANAGEMENT\src\SQL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>96000000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>58000000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,7 +443,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>68000000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -467,7 +467,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>12880000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -475,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -491,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
